--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\Golf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\Golf\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51633C64-5778-437F-A624-060701000900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D3BAF0-19E6-4E31-A302-077939333E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Cards" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -195,15 +195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,10 +567,400 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -602,417 +989,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
@@ -1020,6 +996,95 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -1027,86 +1092,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1117,11 +1102,23 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1137,67 +1134,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W2" totalsRowShown="0" headerRowDxfId="49" dataDxfId="50" headerRowBorderDxfId="71" tableBorderDxfId="72">
-  <autoFilter ref="A1:W2" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W3" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+  <autoFilter ref="A1:W3" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{0FA1F7EE-78BC-4F2F-8DE6-08D5ECB1FE74}" name="1" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{0BFA8334-DE5B-4B8C-A103-CE4FB9EC7FBD}" name="2" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{098A6D8F-23DC-4368-BD80-2D411A2F7771}" name="3" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{C24ADFA1-0F47-41E7-82C5-EE00776A6663}" name="4" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{B11E1176-3220-4DC6-93DF-5C7206E483DB}" name="5" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{4B787084-CB83-42BC-98E3-DA1AC21BA05D}" name="6" dataDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{AC847978-0341-4A36-8D58-48CA9C091E80}" name="7" dataDxfId="62"/>
-    <tableColumn id="10" xr3:uid="{D1095149-6B74-44BE-B691-F5F4536475FE}" name="8" dataDxfId="61"/>
-    <tableColumn id="11" xr3:uid="{F5514210-D6C4-4FD4-9605-5547F5D291D2}" name="9" dataDxfId="60"/>
-    <tableColumn id="12" xr3:uid="{419CB42C-FF5F-4348-BC7D-45911BFC602E}" name="10" dataDxfId="59"/>
-    <tableColumn id="13" xr3:uid="{B5E8896A-1F16-45D3-B176-CE018B38AF7C}" name="11" dataDxfId="58"/>
-    <tableColumn id="14" xr3:uid="{4EEC2A44-B517-4B11-8EEF-9EF3774AE3AA}" name="12" dataDxfId="57"/>
-    <tableColumn id="15" xr3:uid="{A709FAF7-6777-4851-B121-F50367C26826}" name="13" dataDxfId="56"/>
-    <tableColumn id="16" xr3:uid="{D4B74B92-8865-4C42-AB6F-FED935CB4803}" name="14" dataDxfId="55"/>
-    <tableColumn id="17" xr3:uid="{76CFDCFD-BAFF-4A0C-9EEB-4DFAC9C258F2}" name="15" dataDxfId="54"/>
-    <tableColumn id="18" xr3:uid="{FE12E44C-3459-4120-B345-2507CE9439ED}" name="16" dataDxfId="53"/>
-    <tableColumn id="19" xr3:uid="{E880333F-A568-41D7-8DDC-A5A26A2A1CB5}" name="17" dataDxfId="52"/>
-    <tableColumn id="20" xr3:uid="{49020655-789D-4023-A4E3-08633F0925DD}" name="18" dataDxfId="51"/>
-    <tableColumn id="21" xr3:uid="{2574838D-8BF4-44EF-9521-5F2C5AF25F67}" name="GIR" dataDxfId="25"/>
-    <tableColumn id="22" xr3:uid="{04785E75-B36C-4679-865B-5CFC38DA6F62}" name="Putts" dataDxfId="24"/>
-    <tableColumn id="23" xr3:uid="{563662FA-3ECE-4479-BE86-CE3E544A9AF2}" name="Fairways" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{0FA1F7EE-78BC-4F2F-8DE6-08D5ECB1FE74}" name="1" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{0BFA8334-DE5B-4B8C-A103-CE4FB9EC7FBD}" name="2" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{098A6D8F-23DC-4368-BD80-2D411A2F7771}" name="3" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{C24ADFA1-0F47-41E7-82C5-EE00776A6663}" name="4" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{B11E1176-3220-4DC6-93DF-5C7206E483DB}" name="5" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{4B787084-CB83-42BC-98E3-DA1AC21BA05D}" name="6" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{AC847978-0341-4A36-8D58-48CA9C091E80}" name="7" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{D1095149-6B74-44BE-B691-F5F4536475FE}" name="8" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{F5514210-D6C4-4FD4-9605-5547F5D291D2}" name="9" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{419CB42C-FF5F-4348-BC7D-45911BFC602E}" name="10" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{B5E8896A-1F16-45D3-B176-CE018B38AF7C}" name="11" dataDxfId="56"/>
+    <tableColumn id="14" xr3:uid="{4EEC2A44-B517-4B11-8EEF-9EF3774AE3AA}" name="12" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{A709FAF7-6777-4851-B121-F50367C26826}" name="13" dataDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{D4B74B92-8865-4C42-AB6F-FED935CB4803}" name="14" dataDxfId="53"/>
+    <tableColumn id="17" xr3:uid="{76CFDCFD-BAFF-4A0C-9EEB-4DFAC9C258F2}" name="15" dataDxfId="52"/>
+    <tableColumn id="18" xr3:uid="{FE12E44C-3459-4120-B345-2507CE9439ED}" name="16" dataDxfId="51"/>
+    <tableColumn id="19" xr3:uid="{E880333F-A568-41D7-8DDC-A5A26A2A1CB5}" name="17" dataDxfId="50"/>
+    <tableColumn id="20" xr3:uid="{49020655-789D-4023-A4E3-08633F0925DD}" name="18" dataDxfId="49"/>
+    <tableColumn id="21" xr3:uid="{2574838D-8BF4-44EF-9521-5F2C5AF25F67}" name="GIR" dataDxfId="48"/>
+    <tableColumn id="22" xr3:uid="{04785E75-B36C-4679-865B-5CFC38DA6F62}" name="Putts" dataDxfId="47"/>
+    <tableColumn id="23" xr3:uid="{563662FA-3ECE-4479-BE86-CE3E544A9AF2}" name="Fairways" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA24C5C8-325A-47BE-A13D-D90937A1910E}" name="Table2" displayName="Table2" ref="A1:S2" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27" headerRowBorderDxfId="47" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA24C5C8-325A-47BE-A13D-D90937A1910E}" name="Table2" displayName="Table2" ref="A1:S2" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <autoFilter ref="A1:S2" xr:uid="{BA24C5C8-325A-47BE-A13D-D90937A1910E}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{DD6BC8FF-48C3-4E6B-8977-DC0A4AF98ADF}" name="Course" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{DAD1FCCF-276C-4332-967F-D073C1E0DDD1}" name="1" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{3A6CDF48-6A98-48A7-B2D4-E89410EF1B30}" name="2" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{47977EA2-FA60-496B-B435-236FE0BA0B44}" name="3" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{3FBA5906-B70F-432E-9700-B68FD30D9157}" name="4" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{28EDC248-E3B5-405C-AB79-F88C8F170E0E}" name="5" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{BDA26F4C-A79E-4AD5-86AE-2074156079E3}" name="6" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{56B00542-1669-43B1-8874-3DD0511CCDEF}" name="7" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{8A94CBBC-93B1-4E03-8352-5AFC68EA378C}" name="8" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{56068907-EDE1-4AF6-92D3-DCF68864B7B8}" name="9" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{ACEEAF69-F6A4-4E39-87F6-7F4B0EEC4322}" name="10" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{6FB3D2E0-330D-4446-94A8-87391EA46E51}" name="11" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{2A5F3050-68AA-4D80-BB13-40CA1BC9BF4D}" name="12" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{E549B188-8BFC-49F9-8A94-E79D9AC12D3F}" name="13" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{EE5B7C13-37B9-4DA4-96E0-B0B655580633}" name="14" dataDxfId="32"/>
-    <tableColumn id="16" xr3:uid="{34357181-1EA9-4E1C-A63E-CEC8EF65456F}" name="15" dataDxfId="31"/>
-    <tableColumn id="17" xr3:uid="{6A0AABF0-8A30-49FD-90BD-A4DC9ABA79EC}" name="16" dataDxfId="30"/>
-    <tableColumn id="18" xr3:uid="{B7AC0EE6-9966-4E79-9A9B-4047CC9C0AA4}" name="17" dataDxfId="29"/>
-    <tableColumn id="19" xr3:uid="{AA3F0DDA-3E46-4ECA-9C35-A277952E56C4}" name="18" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{DD6BC8FF-48C3-4E6B-8977-DC0A4AF98ADF}" name="Course" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{DAD1FCCF-276C-4332-967F-D073C1E0DDD1}" name="1" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{3A6CDF48-6A98-48A7-B2D4-E89410EF1B30}" name="2" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{47977EA2-FA60-496B-B435-236FE0BA0B44}" name="3" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{3FBA5906-B70F-432E-9700-B68FD30D9157}" name="4" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{28EDC248-E3B5-405C-AB79-F88C8F170E0E}" name="5" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{BDA26F4C-A79E-4AD5-86AE-2074156079E3}" name="6" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{56B00542-1669-43B1-8874-3DD0511CCDEF}" name="7" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{8A94CBBC-93B1-4E03-8352-5AFC68EA378C}" name="8" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{56068907-EDE1-4AF6-92D3-DCF68864B7B8}" name="9" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{ACEEAF69-F6A4-4E39-87F6-7F4B0EEC4322}" name="10" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{6FB3D2E0-330D-4446-94A8-87391EA46E51}" name="11" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{2A5F3050-68AA-4D80-BB13-40CA1BC9BF4D}" name="12" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{E549B188-8BFC-49F9-8A94-E79D9AC12D3F}" name="13" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{EE5B7C13-37B9-4DA4-96E0-B0B655580633}" name="14" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{34357181-1EA9-4E1C-A63E-CEC8EF65456F}" name="15" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{6A0AABF0-8A30-49FD-90BD-A4DC9ABA79EC}" name="16" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{B7AC0EE6-9966-4E79-9A9B-4047CC9C0AA4}" name="17" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{AA3F0DDA-3E46-4ECA-9C35-A277952E56C4}" name="18" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}" name="Table24" displayName="Table24" ref="A1:S2" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}" name="Table24" displayName="Table24" ref="A1:S2" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
   <autoFilter ref="A1:S2" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{CFEBEA66-C11E-40EA-9B1C-519F8D6D5A4D}" name="Course" dataDxfId="18"/>
@@ -1521,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,73 +1535,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1676,6 +1673,77 @@
         <v>33</v>
       </c>
       <c r="W2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45605</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>8</v>
+      </c>
+      <c r="S3" s="1">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>41</v>
+      </c>
+      <c r="W3" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1701,61 +1769,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1763,58 +1831,58 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>11</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>17</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>7</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="1">
         <v>10</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
         <v>2</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
         <v>12</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="1">
         <v>16</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="1">
         <v>8</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="1">
         <v>6</v>
       </c>
-      <c r="Q2" s="3">
-        <v>4</v>
-      </c>
-      <c r="R2" s="3">
+      <c r="Q2" s="1">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1">
         <v>18</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="1">
         <v>14</v>
       </c>
     </row>
@@ -1830,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534A788D-C5D7-487E-983A-A68219D7D8C3}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -1840,61 +1908,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1902,58 +1970,58 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3">
-        <v>4</v>
-      </c>
-      <c r="K2" s="3">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3">
-        <v>4</v>
-      </c>
-      <c r="M2" s="3">
-        <v>4</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1">
         <v>3</v>
       </c>
-      <c r="O2" s="3">
-        <v>4</v>
-      </c>
-      <c r="P2" s="3">
+      <c r="O2" s="1">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1">
         <v>3</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="1">
         <v>5</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="1">
         <v>3</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="1">
         <v>4</v>
       </c>
     </row>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\Golf\GolfStats\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D3BAF0-19E6-4E31-A302-077939333E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B07D92-964B-49FE-AD84-EB3E5EE06161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Cards" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -1134,8 +1134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W3" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
-  <autoFilter ref="A1:W3" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W4" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+  <autoFilter ref="A1:W4" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="68"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="67"/>
@@ -1518,23 +1518,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="21" width="8.88671875" style="1"/>
-    <col min="22" max="22" width="11.88671875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="21" width="8.85546875" style="1"/>
+    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1745,6 +1745,77 @@
       </c>
       <c r="W3" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45633</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>6</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>34</v>
+      </c>
+      <c r="W4" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1760,15 +1831,15 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1827,7 +1898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1902,12 +1973,12 @@
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +2037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Apps\GolfStats\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B07D92-964B-49FE-AD84-EB3E5EE06161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D177E00F-B9BB-4059-A6FD-F22A3E587D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Cards" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -1134,8 +1134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W4" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
-  <autoFilter ref="A1:W4" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W5" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+  <autoFilter ref="A1:W5" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="68"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="67"/>
@@ -1518,23 +1518,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="21" width="8.85546875" style="1"/>
-    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="11.88671875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1816,6 +1816,77 @@
       </c>
       <c r="W4" s="1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45654</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>6</v>
+      </c>
+      <c r="R5" s="1">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
+      <c r="V5" s="1">
+        <v>36</v>
+      </c>
+      <c r="W5" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1834,12 +1905,12 @@
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1898,7 +1969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1973,12 +2044,12 @@
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2037,7 +2108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D177E00F-B9BB-4059-A6FD-F22A3E587D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB3C8E-6180-4326-AC1E-BDCE8D4F3783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB3C8E-6180-4326-AC1E-BDCE8D4F3783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF7189-536C-44E7-815B-5B1E77311227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -1134,8 +1134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W5" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
-  <autoFilter ref="A1:W5" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W6" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+  <autoFilter ref="A1:W6" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="68"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="67"/>
@@ -1518,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1887,6 +1887,77 @@
       </c>
       <c r="W5" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45675</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>8</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3</v>
+      </c>
+      <c r="V6" s="1">
+        <v>33</v>
+      </c>
+      <c r="W6" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF7189-536C-44E7-815B-5B1E77311227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3BF854-3E9E-4AFA-9125-76FFCD85BADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="11124" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Cards" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -1134,8 +1134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W6" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
-  <autoFilter ref="A1:W6" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W7" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+  <autoFilter ref="A1:W7" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="68"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="67"/>
@@ -1518,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1958,6 +1958,77 @@
       </c>
       <c r="W6" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>6</v>
+      </c>
+      <c r="V7" s="1">
+        <v>36</v>
+      </c>
+      <c r="W7" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3BF854-3E9E-4AFA-9125-76FFCD85BADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F6830-8157-4BBA-9EA1-1CC1B8C93194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="11124" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -1134,8 +1134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W7" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
-  <autoFilter ref="A1:W7" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W8" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+  <autoFilter ref="A1:W8" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="68"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="67"/>
@@ -1518,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2029,6 +2029,77 @@
       </c>
       <c r="W7" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45731</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>7</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>5</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1">
+        <v>3</v>
+      </c>
+      <c r="V8" s="1">
+        <v>39</v>
+      </c>
+      <c r="W8" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F6830-8157-4BBA-9EA1-1CC1B8C93194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182C8F7E-E846-4571-8CF1-E4D6557EB84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="11124" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -1134,8 +1134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W8" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
-  <autoFilter ref="A1:W8" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W9" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+  <autoFilter ref="A1:W9" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="68"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="67"/>
@@ -1518,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2100,6 +2100,77 @@
       </c>
       <c r="W8" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45752</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4</v>
+      </c>
+      <c r="P9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4</v>
+      </c>
+      <c r="R9" s="1">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>5</v>
+      </c>
+      <c r="V9" s="1">
+        <v>33</v>
+      </c>
+      <c r="W9" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182C8F7E-E846-4571-8CF1-E4D6557EB84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB143DA8-AB0B-4D21-85F4-4DB0C7079B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="11124" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Cards" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -1134,8 +1134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W9" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
-  <autoFilter ref="A1:W9" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W10" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+  <autoFilter ref="A1:W10" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="68"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="67"/>
@@ -1518,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2171,6 +2171,77 @@
       </c>
       <c r="W9" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45780</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>4</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>41</v>
+      </c>
+      <c r="W10" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Apps\GolfStats\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB143DA8-AB0B-4D21-85F4-4DB0C7079B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864AC957-F9EE-4246-B16E-051AF1B714F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Cards" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Fairways</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Slope</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1134,88 +1178,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W10" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W10" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
   <autoFilter ref="A1:W10" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{0FA1F7EE-78BC-4F2F-8DE6-08D5ECB1FE74}" name="1" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{0BFA8334-DE5B-4B8C-A103-CE4FB9EC7FBD}" name="2" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{098A6D8F-23DC-4368-BD80-2D411A2F7771}" name="3" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{C24ADFA1-0F47-41E7-82C5-EE00776A6663}" name="4" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{B11E1176-3220-4DC6-93DF-5C7206E483DB}" name="5" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{4B787084-CB83-42BC-98E3-DA1AC21BA05D}" name="6" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{AC847978-0341-4A36-8D58-48CA9C091E80}" name="7" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{D1095149-6B74-44BE-B691-F5F4536475FE}" name="8" dataDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{F5514210-D6C4-4FD4-9605-5547F5D291D2}" name="9" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{419CB42C-FF5F-4348-BC7D-45911BFC602E}" name="10" dataDxfId="57"/>
-    <tableColumn id="13" xr3:uid="{B5E8896A-1F16-45D3-B176-CE018B38AF7C}" name="11" dataDxfId="56"/>
-    <tableColumn id="14" xr3:uid="{4EEC2A44-B517-4B11-8EEF-9EF3774AE3AA}" name="12" dataDxfId="55"/>
-    <tableColumn id="15" xr3:uid="{A709FAF7-6777-4851-B121-F50367C26826}" name="13" dataDxfId="54"/>
-    <tableColumn id="16" xr3:uid="{D4B74B92-8865-4C42-AB6F-FED935CB4803}" name="14" dataDxfId="53"/>
-    <tableColumn id="17" xr3:uid="{76CFDCFD-BAFF-4A0C-9EEB-4DFAC9C258F2}" name="15" dataDxfId="52"/>
-    <tableColumn id="18" xr3:uid="{FE12E44C-3459-4120-B345-2507CE9439ED}" name="16" dataDxfId="51"/>
-    <tableColumn id="19" xr3:uid="{E880333F-A568-41D7-8DDC-A5A26A2A1CB5}" name="17" dataDxfId="50"/>
-    <tableColumn id="20" xr3:uid="{49020655-789D-4023-A4E3-08633F0925DD}" name="18" dataDxfId="49"/>
-    <tableColumn id="21" xr3:uid="{2574838D-8BF4-44EF-9521-5F2C5AF25F67}" name="GIR" dataDxfId="48"/>
-    <tableColumn id="22" xr3:uid="{04785E75-B36C-4679-865B-5CFC38DA6F62}" name="Putts" dataDxfId="47"/>
-    <tableColumn id="23" xr3:uid="{563662FA-3ECE-4479-BE86-CE3E544A9AF2}" name="Fairways" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{0FA1F7EE-78BC-4F2F-8DE6-08D5ECB1FE74}" name="1" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{0BFA8334-DE5B-4B8C-A103-CE4FB9EC7FBD}" name="2" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{098A6D8F-23DC-4368-BD80-2D411A2F7771}" name="3" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{C24ADFA1-0F47-41E7-82C5-EE00776A6663}" name="4" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{B11E1176-3220-4DC6-93DF-5C7206E483DB}" name="5" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{4B787084-CB83-42BC-98E3-DA1AC21BA05D}" name="6" dataDxfId="63"/>
+    <tableColumn id="9" xr3:uid="{AC847978-0341-4A36-8D58-48CA9C091E80}" name="7" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{D1095149-6B74-44BE-B691-F5F4536475FE}" name="8" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{F5514210-D6C4-4FD4-9605-5547F5D291D2}" name="9" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{419CB42C-FF5F-4348-BC7D-45911BFC602E}" name="10" dataDxfId="59"/>
+    <tableColumn id="13" xr3:uid="{B5E8896A-1F16-45D3-B176-CE018B38AF7C}" name="11" dataDxfId="58"/>
+    <tableColumn id="14" xr3:uid="{4EEC2A44-B517-4B11-8EEF-9EF3774AE3AA}" name="12" dataDxfId="57"/>
+    <tableColumn id="15" xr3:uid="{A709FAF7-6777-4851-B121-F50367C26826}" name="13" dataDxfId="56"/>
+    <tableColumn id="16" xr3:uid="{D4B74B92-8865-4C42-AB6F-FED935CB4803}" name="14" dataDxfId="55"/>
+    <tableColumn id="17" xr3:uid="{76CFDCFD-BAFF-4A0C-9EEB-4DFAC9C258F2}" name="15" dataDxfId="54"/>
+    <tableColumn id="18" xr3:uid="{FE12E44C-3459-4120-B345-2507CE9439ED}" name="16" dataDxfId="53"/>
+    <tableColumn id="19" xr3:uid="{E880333F-A568-41D7-8DDC-A5A26A2A1CB5}" name="17" dataDxfId="52"/>
+    <tableColumn id="20" xr3:uid="{49020655-789D-4023-A4E3-08633F0925DD}" name="18" dataDxfId="51"/>
+    <tableColumn id="21" xr3:uid="{2574838D-8BF4-44EF-9521-5F2C5AF25F67}" name="GIR" dataDxfId="50"/>
+    <tableColumn id="22" xr3:uid="{04785E75-B36C-4679-865B-5CFC38DA6F62}" name="Putts" dataDxfId="49"/>
+    <tableColumn id="23" xr3:uid="{563662FA-3ECE-4479-BE86-CE3E544A9AF2}" name="Fairways" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA24C5C8-325A-47BE-A13D-D90937A1910E}" name="Table2" displayName="Table2" ref="A1:S2" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA24C5C8-325A-47BE-A13D-D90937A1910E}" name="Table2" displayName="Table2" ref="A1:S2" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
   <autoFilter ref="A1:S2" xr:uid="{BA24C5C8-325A-47BE-A13D-D90937A1910E}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{DD6BC8FF-48C3-4E6B-8977-DC0A4AF98ADF}" name="Course" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{DAD1FCCF-276C-4332-967F-D073C1E0DDD1}" name="1" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{3A6CDF48-6A98-48A7-B2D4-E89410EF1B30}" name="2" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{47977EA2-FA60-496B-B435-236FE0BA0B44}" name="3" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{3FBA5906-B70F-432E-9700-B68FD30D9157}" name="4" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{28EDC248-E3B5-405C-AB79-F88C8F170E0E}" name="5" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{BDA26F4C-A79E-4AD5-86AE-2074156079E3}" name="6" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{56B00542-1669-43B1-8874-3DD0511CCDEF}" name="7" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{8A94CBBC-93B1-4E03-8352-5AFC68EA378C}" name="8" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{56068907-EDE1-4AF6-92D3-DCF68864B7B8}" name="9" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{ACEEAF69-F6A4-4E39-87F6-7F4B0EEC4322}" name="10" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{6FB3D2E0-330D-4446-94A8-87391EA46E51}" name="11" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{2A5F3050-68AA-4D80-BB13-40CA1BC9BF4D}" name="12" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{E549B188-8BFC-49F9-8A94-E79D9AC12D3F}" name="13" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{EE5B7C13-37B9-4DA4-96E0-B0B655580633}" name="14" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{34357181-1EA9-4E1C-A63E-CEC8EF65456F}" name="15" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{6A0AABF0-8A30-49FD-90BD-A4DC9ABA79EC}" name="16" dataDxfId="25"/>
-    <tableColumn id="18" xr3:uid="{B7AC0EE6-9966-4E79-9A9B-4047CC9C0AA4}" name="17" dataDxfId="24"/>
-    <tableColumn id="19" xr3:uid="{AA3F0DDA-3E46-4ECA-9C35-A277952E56C4}" name="18" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{DD6BC8FF-48C3-4E6B-8977-DC0A4AF98ADF}" name="Course" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{DAD1FCCF-276C-4332-967F-D073C1E0DDD1}" name="1" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{3A6CDF48-6A98-48A7-B2D4-E89410EF1B30}" name="2" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{47977EA2-FA60-496B-B435-236FE0BA0B44}" name="3" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{3FBA5906-B70F-432E-9700-B68FD30D9157}" name="4" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{28EDC248-E3B5-405C-AB79-F88C8F170E0E}" name="5" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{BDA26F4C-A79E-4AD5-86AE-2074156079E3}" name="6" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{56B00542-1669-43B1-8874-3DD0511CCDEF}" name="7" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{8A94CBBC-93B1-4E03-8352-5AFC68EA378C}" name="8" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{56068907-EDE1-4AF6-92D3-DCF68864B7B8}" name="9" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{ACEEAF69-F6A4-4E39-87F6-7F4B0EEC4322}" name="10" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{6FB3D2E0-330D-4446-94A8-87391EA46E51}" name="11" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{2A5F3050-68AA-4D80-BB13-40CA1BC9BF4D}" name="12" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{E549B188-8BFC-49F9-8A94-E79D9AC12D3F}" name="13" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{EE5B7C13-37B9-4DA4-96E0-B0B655580633}" name="14" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{34357181-1EA9-4E1C-A63E-CEC8EF65456F}" name="15" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{6A0AABF0-8A30-49FD-90BD-A4DC9ABA79EC}" name="16" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{B7AC0EE6-9966-4E79-9A9B-4047CC9C0AA4}" name="17" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{AA3F0DDA-3E46-4ECA-9C35-A277952E56C4}" name="18" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}" name="Table24" displayName="Table24" ref="A1:S2" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
-  <autoFilter ref="A1:S2" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{CFEBEA66-C11E-40EA-9B1C-519F8D6D5A4D}" name="Course" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{E3A55B99-6240-4A04-9BEC-04FB4FD27D1A}" name="1" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{29448B79-C1F8-4656-93C6-EEE05301C1C7}" name="2" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{6EE69DE0-E80B-4296-90DB-6F719F757C06}" name="3" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{9430120A-194A-4A96-A5F2-D910B79DF7C7}" name="4" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{3F084C70-5237-4A01-85D2-C39DA34ED18D}" name="5" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{47A1F1DD-94C3-4EE0-899C-697636DD931B}" name="6" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{331CCC07-3D1C-474A-86AB-3C0FC295B320}" name="7" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{D28A0D0F-A89F-48C0-A7BD-4C95494A6F59}" name="8" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{7BD177E6-AF81-4707-9FAA-B85C45C848B7}" name="9" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{B109D606-DDD3-4DEE-81C5-260788F18373}" name="10" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{F10D6D12-F2AF-4FC1-BFF3-854501F52BAB}" name="11" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{8EEA594B-61DC-4224-973D-437E47DF4377}" name="12" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{065AC3B6-6C98-4E65-9776-062C738050C1}" name="13" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{E2AC4E19-9C98-4EFE-B8FA-5336FBC3261A}" name="14" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{F7510614-9373-4DDD-8075-CAB3671E7432}" name="15" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{B0206BEC-EC27-4885-924A-D81D452CEF45}" name="16" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{F2A15563-B559-45F7-8676-CDD23A93AA36}" name="17" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{9DBACF03-ED0B-4641-BE63-C26052C34DED}" name="18" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}" name="Table24" displayName="Table24" ref="A1:U2" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+  <autoFilter ref="A1:U2" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{CFEBEA66-C11E-40EA-9B1C-519F8D6D5A4D}" name="Course" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{E3A55B99-6240-4A04-9BEC-04FB4FD27D1A}" name="1" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{29448B79-C1F8-4656-93C6-EEE05301C1C7}" name="2" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{6EE69DE0-E80B-4296-90DB-6F719F757C06}" name="3" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{9430120A-194A-4A96-A5F2-D910B79DF7C7}" name="4" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{3F084C70-5237-4A01-85D2-C39DA34ED18D}" name="5" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{47A1F1DD-94C3-4EE0-899C-697636DD931B}" name="6" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{331CCC07-3D1C-474A-86AB-3C0FC295B320}" name="7" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{D28A0D0F-A89F-48C0-A7BD-4C95494A6F59}" name="8" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{7BD177E6-AF81-4707-9FAA-B85C45C848B7}" name="9" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{B109D606-DDD3-4DEE-81C5-260788F18373}" name="10" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{F10D6D12-F2AF-4FC1-BFF3-854501F52BAB}" name="11" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{8EEA594B-61DC-4224-973D-437E47DF4377}" name="12" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{065AC3B6-6C98-4E65-9776-062C738050C1}" name="13" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{E2AC4E19-9C98-4EFE-B8FA-5336FBC3261A}" name="14" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{F7510614-9373-4DDD-8075-CAB3671E7432}" name="15" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{B0206BEC-EC27-4885-924A-D81D452CEF45}" name="16" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{F2A15563-B559-45F7-8676-CDD23A93AA36}" name="17" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{9DBACF03-ED0B-4641-BE63-C26052C34DED}" name="18" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{1411EA07-8103-4098-89E6-3645E697A863}" name="Rating" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{D2B9AF66-DA7E-4582-AA67-E8A4C8ED89C4}" name="Slope" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1520,21 +1566,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="21" width="8.88671875" style="1"/>
-    <col min="22" max="22" width="11.88671875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="21" width="8.85546875" style="1"/>
+    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1605,7 +1651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1747,7 +1793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1818,7 +1864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1889,7 +1935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1960,7 +2006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -2031,7 +2077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2102,7 +2148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2173,7 +2219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2260,12 +2306,12 @@
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2324,7 +2370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2393,18 +2439,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534A788D-C5D7-487E-983A-A68219D7D8C3}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2462,8 +2508,14 @@
       <c r="S1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="T1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2520,6 +2572,12 @@
       </c>
       <c r="S2" s="1">
         <v>4</v>
+      </c>
+      <c r="T2" s="1">
+        <v>66</v>
+      </c>
+      <c r="U2" s="1">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864AC957-F9EE-4246-B16E-051AF1B714F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F883109-DC7D-4870-99FA-807B27A309BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Cards" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -1178,8 +1178,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W10" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
-  <autoFilter ref="A1:W10" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W11" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
+  <autoFilter ref="A1:W11" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="70"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="69"/>
@@ -1564,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,6 +2288,77 @@
       </c>
       <c r="W10" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>5</v>
+      </c>
+      <c r="R11" s="1">
+        <v>7</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1">
+        <v>3</v>
+      </c>
+      <c r="V11" s="1">
+        <v>35</v>
+      </c>
+      <c r="W11" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534A788D-C5D7-487E-983A-A68219D7D8C3}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F883109-DC7D-4870-99FA-807B27A309BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF2778-B3BE-4B96-B8C3-0BE6D901FE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -1178,8 +1178,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W11" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
-  <autoFilter ref="A1:W11" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W12" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
+  <autoFilter ref="A1:W12" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="70"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="69"/>
@@ -1564,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,6 +2359,77 @@
       </c>
       <c r="W11" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45836</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>8</v>
+      </c>
+      <c r="O12" s="1">
+        <v>7</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>5</v>
+      </c>
+      <c r="R12" s="1">
+        <v>5</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>3</v>
+      </c>
+      <c r="V12" s="1">
+        <v>42</v>
+      </c>
+      <c r="W12" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF2778-B3BE-4B96-B8C3-0BE6D901FE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F7F0F9-8786-4CBE-96CE-396FC603E3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Slope</t>
+  </si>
+  <si>
+    <t>Honey Bee</t>
   </si>
 </sst>
 </file>
@@ -1178,8 +1181,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W12" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
-  <autoFilter ref="A1:W12" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W14" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
+  <autoFilter ref="A1:W14" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="70"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="69"/>
@@ -1210,8 +1213,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA24C5C8-325A-47BE-A13D-D90937A1910E}" name="Table2" displayName="Table2" ref="A1:S2" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
-  <autoFilter ref="A1:S2" xr:uid="{BA24C5C8-325A-47BE-A13D-D90937A1910E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA24C5C8-325A-47BE-A13D-D90937A1910E}" name="Table2" displayName="Table2" ref="A1:S3" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
+  <autoFilter ref="A1:S3" xr:uid="{BA24C5C8-325A-47BE-A13D-D90937A1910E}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{DD6BC8FF-48C3-4E6B-8977-DC0A4AF98ADF}" name="Course" dataDxfId="43"/>
     <tableColumn id="2" xr3:uid="{DAD1FCCF-276C-4332-967F-D073C1E0DDD1}" name="1" dataDxfId="42"/>
@@ -1238,8 +1241,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}" name="Table24" displayName="Table24" ref="A1:U2" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
-  <autoFilter ref="A1:U2" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}" name="Table24" displayName="Table24" ref="A1:U3" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+  <autoFilter ref="A1:U3" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{CFEBEA66-C11E-40EA-9B1C-519F8D6D5A4D}" name="Course" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{E3A55B99-6240-4A04-9BEC-04FB4FD27D1A}" name="1" dataDxfId="19"/>
@@ -1564,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,6 +2435,148 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45857</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5</v>
+      </c>
+      <c r="R13" s="1">
+        <v>6</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5</v>
+      </c>
+      <c r="U13" s="1">
+        <v>6</v>
+      </c>
+      <c r="V13" s="1">
+        <v>34</v>
+      </c>
+      <c r="W13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45871</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>5</v>
+      </c>
+      <c r="R14" s="1">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1">
+        <v>5</v>
+      </c>
+      <c r="T14" s="1">
+        <v>6</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>40</v>
+      </c>
+      <c r="W14" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2442,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A42EF0A-8226-4283-852A-2A86FD4BC582}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,6 +2714,65 @@
       </c>
       <c r="S2" s="1">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2581,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534A788D-C5D7-487E-983A-A68219D7D8C3}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,6 +2926,71 @@
         <v>109</v>
       </c>
     </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="U3" s="1">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F7F0F9-8786-4CBE-96CE-396FC603E3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ED35FD-D1F0-4D3B-8CA6-74A3070D367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -1181,8 +1181,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W14" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
-  <autoFilter ref="A1:W14" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W15" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
+  <autoFilter ref="A1:W15" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="70"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="69"/>
@@ -1567,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,6 +2575,77 @@
       </c>
       <c r="W14" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45885</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1">
+        <v>4</v>
+      </c>
+      <c r="P15" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>5</v>
+      </c>
+      <c r="R15" s="1">
+        <v>10</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>5</v>
+      </c>
+      <c r="V15" s="1">
+        <v>37</v>
+      </c>
+      <c r="W15" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ED35FD-D1F0-4D3B-8CA6-74A3070D367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C87DCD9-D48F-4253-B1B7-F48F002BA118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
+    <workbookView xWindow="1170" yWindow="2610" windowWidth="20355" windowHeight="12285" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Cards" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Honey Bee</t>
+  </si>
+  <si>
+    <t>Cypress Point</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +227,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,8 +1187,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W15" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
-  <autoFilter ref="A1:W15" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W16" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
+  <autoFilter ref="A1:W16" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="70"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="69"/>
@@ -1241,8 +1247,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}" name="Table24" displayName="Table24" ref="A1:U3" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
-  <autoFilter ref="A1:U3" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}" name="Table24" displayName="Table24" ref="A1:U4" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+  <autoFilter ref="A1:U4" xr:uid="{E23CC1EA-99BC-4242-AF8E-4EFD850D2CFF}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{CFEBEA66-C11E-40EA-9B1C-519F8D6D5A4D}" name="Course" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{E3A55B99-6240-4A04-9BEC-04FB4FD27D1A}" name="1" dataDxfId="19"/>
@@ -1567,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,6 +2652,77 @@
       </c>
       <c r="W15" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45899</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>4</v>
+      </c>
+      <c r="R16" s="1">
+        <v>4</v>
+      </c>
+      <c r="S16" s="1">
+        <v>5</v>
+      </c>
+      <c r="T16" s="1">
+        <v>6</v>
+      </c>
+      <c r="U16" s="1">
+        <v>5</v>
+      </c>
+      <c r="V16" s="1">
+        <v>37</v>
+      </c>
+      <c r="W16" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2856,10 +2933,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534A788D-C5D7-487E-983A-A68219D7D8C3}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3062,6 +3139,71 @@
         <v>121</v>
       </c>
     </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7">
+        <v>3</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4</v>
+      </c>
+      <c r="O4" s="7">
+        <v>5</v>
+      </c>
+      <c r="P4" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>4</v>
+      </c>
+      <c r="R4" s="7">
+        <v>3</v>
+      </c>
+      <c r="S4" s="7">
+        <v>5</v>
+      </c>
+      <c r="T4" s="7">
+        <v>69</v>
+      </c>
+      <c r="U4" s="7">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C87DCD9-D48F-4253-B1B7-F48F002BA118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F4F171-DFBE-4357-BEF0-0DA31174CAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2610" windowWidth="20355" windowHeight="12285" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Cards" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,9 +227,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,8 +1184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W16" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
-  <autoFilter ref="A1:W16" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W17" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
+  <autoFilter ref="A1:W17" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="70"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="69"/>
@@ -1573,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,6 +2720,77 @@
       </c>
       <c r="W16" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45934</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>7</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>4</v>
+      </c>
+      <c r="R17" s="1">
+        <v>5</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>3</v>
+      </c>
+      <c r="U17" s="1">
+        <v>3</v>
+      </c>
+      <c r="V17" s="1">
+        <v>31</v>
+      </c>
+      <c r="W17" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3143,64 +3211,64 @@
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5</v>
-      </c>
-      <c r="J4" s="7">
-        <v>3</v>
-      </c>
-      <c r="K4" s="7">
-        <v>4</v>
-      </c>
-      <c r="L4" s="7">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7">
-        <v>4</v>
-      </c>
-      <c r="N4" s="7">
-        <v>4</v>
-      </c>
-      <c r="O4" s="7">
-        <v>5</v>
-      </c>
-      <c r="P4" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>4</v>
-      </c>
-      <c r="R4" s="7">
-        <v>3</v>
-      </c>
-      <c r="S4" s="7">
-        <v>5</v>
-      </c>
-      <c r="T4" s="7">
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1">
         <v>69</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="1">
         <v>118</v>
       </c>
     </row>

--- a/data/GolfData.xlsx
+++ b/data/GolfData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Apps\GolfStats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F4F171-DFBE-4357-BEF0-0DA31174CAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F34FA9-3E88-41BB-B1CB-8A558CBB7931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
+    <workbookView xWindow="29790" yWindow="4020" windowWidth="21600" windowHeight="11295" xr2:uid="{C4BA5778-8140-4272-B97C-07E35F2520D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Cards" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -1184,8 +1184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W17" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
-  <autoFilter ref="A1:W17" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}" name="Table1" displayName="Table1" ref="A1:W18" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
+  <autoFilter ref="A1:W18" xr:uid="{67CDCE95-7C63-4EE1-A07D-718040E657E9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{6036417A-52C2-4AF8-9A0D-25AEE607F48A}" name="Course" dataDxfId="70"/>
     <tableColumn id="2" xr3:uid="{AE08F17B-78CF-43B6-86B1-7635DA793064}" name="Date" dataDxfId="69"/>
@@ -1570,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B056B-02E7-4106-A28B-369A087ADF9A}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,6 +2791,77 @@
       </c>
       <c r="W17" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45976</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5</v>
+      </c>
+      <c r="N18" s="1">
+        <v>6</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4</v>
+      </c>
+      <c r="P18" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>4</v>
+      </c>
+      <c r="R18" s="1">
+        <v>6</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>5</v>
+      </c>
+      <c r="U18" s="1">
+        <v>2</v>
+      </c>
+      <c r="V18" s="1">
+        <v>35</v>
+      </c>
+      <c r="W18" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
